--- a/로스트아크/데이터테이블/SkillTripod_Table(수정필요).xlsx
+++ b/로스트아크/데이터테이블/SkillTripod_Table(수정필요).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6294A2-5CCE-4B9F-BA91-1584B40EF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD34D97-413C-4F28-83A1-764C96E569B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,31 +211,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>트라이포드 최대 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>param_per_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨에 따라 달라지는 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>트라이포드 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_per_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨에 따라 달라지는 데이터 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1279,7 +1259,7 @@
   <dimension ref="B1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D11" sqref="D11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1422,70 +1402,56 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C11" s="41"/>
-      <c r="D11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>31</v>
-      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C12" s="41"/>
-      <c r="D12" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C13" s="41"/>
-      <c r="D13" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="D13" s="27"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="30" t="s">
-        <v>37</v>
-      </c>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C14" s="41"/>
       <c r="D14" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C15" s="41"/>
       <c r="D15" s="27" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C16" s="41"/>
       <c r="D16" s="27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
@@ -1613,7 +1579,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -1636,11 +1602,11 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1652,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M2" s="42"/>
       <c r="N2" s="1"/>
@@ -1674,11 +1640,11 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1706,11 +1672,11 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1738,11 +1704,11 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1770,11 +1736,11 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -1802,12 +1768,12 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1835,11 +1801,11 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -1865,11 +1831,11 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -1967,13 +1933,13 @@
     </row>
     <row r="13" spans="1:29" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1982,10 +1948,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M13" s="46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="3"/>
@@ -2005,13 +1971,13 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5">
         <v>102</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2023,10 +1989,10 @@
         <v>2</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M14" s="44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.4">
@@ -2043,10 +2009,10 @@
     </row>
     <row r="16" spans="1:29" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
@@ -2055,18 +2021,18 @@
         <v>1</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M16" s="46" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
@@ -2074,7 +2040,7 @@
         <v>102</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
@@ -2089,10 +2055,10 @@
         <v>5</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M17" s="44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N17" s="36"/>
       <c r="O17" s="1"/>
